--- a/Logistics Operations Data.xlsx
+++ b/Logistics Operations Data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\University\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="9770"/>
   </bookViews>
   <sheets>
-    <sheet name="Return request " sheetId="1" r:id="rId1"/>
-    <sheet name="Transportation cost c &amp; f " sheetId="2" r:id="rId2"/>
-    <sheet name="Transportation cost m &amp; f " sheetId="3" r:id="rId3"/>
-    <sheet name="cost installing equipment in f" sheetId="4" r:id="rId4"/>
+    <sheet name="Return demand " sheetId="1" r:id="rId1"/>
+    <sheet name="Transportation cost btween c,f " sheetId="2" r:id="rId2"/>
+    <sheet name="Transportation cost btween m,f" sheetId="3" r:id="rId3"/>
+    <sheet name="Installing cost of an equipment" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -175,14 +175,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,301 +494,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>43</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>34</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>73</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>52</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>36</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>64</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>37</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>54</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>24</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>79</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>39</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>98</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>39</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>77</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>75</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>39</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>34</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>44</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>33</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>49</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>32</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>50</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>49</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>47</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>49</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>61</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>35</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>35</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>80</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>29</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>73</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>81</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>46</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>73</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>26</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>46</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>72</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>35</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>41</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>79</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>98</v>
       </c>
     </row>
@@ -807,623 +801,621 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>8.6209048249009204</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1.74928556845359</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>6.0901559914340497</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4.0199502484483602</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>4.4721359549995796</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>6.7052218456960802</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>7.1693793315739702</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>6.6241980646716803</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4.7413078364518801</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>8.3630138108220304</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>7.8771822373231899</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>5.0119856344566696</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>3.6878177829171599</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>4.6818799642878499</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>3.13049516849971</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>3.3526109228480401</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>5.0931326312987402</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>7.1610055159872603</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>7.3027392121039103</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>4.0521599178709602</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>2.54950975679639</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>3.7443290453698101</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>2.42074368738204</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>2.42074368738204</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.5553864678361302</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>6.4007812023220998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2.4413111231467401</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>3.8587562763149501</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>4.8836461788299097</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>9.59635347410671</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>8.6330759292386592</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>8.4599054368237496</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2.4083189157584601</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>7.9056941504209499</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>3.7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>5.2801515129776302</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>6.12209114600559</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>10.652699188468601</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>9.5414883535012507</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>9.4403389769647603</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>4.2544094772365302</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>8.4852813742385695</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>7.6687678280151399</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>5.0219518117958897</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>3.8288379438153299</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>5.25547333738837</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>3.7121422386541201</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>3.9217343102255202</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3.53553390593274</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>5.2153619241621199</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1.36014705087354</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>3.1144823004794899</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>4.4294469180700196</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>9.2574294488264908</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>8.4770277810091006</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>8.2280009722896796</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4.86004115208915</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>6.2801273872430299</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>6.5276335681470403</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>3.1780497164141401</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1.65529453572468</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>3.9623225512317899</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>2.9154759474226499</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>2.7459060435492</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>6.51920240520265</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>9.8183501669068605</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>9.7514101544340797</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>6.7067130548428899</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>5.2325901807804502</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>4.3104524124504602</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>2.7459060435492</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>3.2280024783137899</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>8.4717176534631999</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>3.2756678708318399</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>6.9354163537598801</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>4.0162171256046397</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>3.8118237105091799</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>5.0328918128646496</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>5.64003546088143</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>5.08035431835222</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>5.8137767414994501</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>7.5802374632988903</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>8.0156097709406993</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>4.6690470119715002</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>3.104834939252</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>3.13049516849971</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>1.69705627484771</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>1.7888543819998299</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>3.30151480384384</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>6.4031242374328503</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>5.5326304774492199</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>2.83196045170126</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>1.96468827043885</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>5.5154328932550696</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>4.3566041821583896</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>4.26380112106557</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>6.2201286160335902</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>10.987720418722001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>10.192153844992699</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>7.6006578662639503</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>6.3126856408346503</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>6.1131006862311699</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>4.5398237851264698</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>5.0009999000199903</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>6.2289646009589701</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>11.737972567696699</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>10.547511554864499</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>8.2462112512353194</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>7.0767224051816502</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>7.21110255092798</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>5.6320511361314898</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>6.0827625302982202</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>7.21110255092798</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>6.3324560795950298</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>8.0653580205716793</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>4.4271887242357302</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>2.9529646120466801</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>1.89736659610103</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>1.8867962264113201</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>1.3416407864998701</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>7.0035705179572503</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>7.3736015623303102</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>8.5906926379658106</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>5.0249378105604396</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>3.4365680554879199</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>1.8027756377319899</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>0.80622577482985502</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>5.3851648071345002</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>5.7982756057296898</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>6.5306967469022803</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>1.4</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>3.60555127546399</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>2.8284271247461898</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>2.5298221281347</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>7.0342021580275897</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>0.94868329805051399</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>3.93573373083089</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>2.7202941017470899</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>3.8832975677895201</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>7.6026311234992896</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>7.6157731058639104</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>7.1386273190298999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>5.6885850613311604</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>10.2068604379603</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>9.4831429389206203</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>6.8264192663504097</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>5.5317266743757303</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>5.6035702904487596</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>4</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>4.4181444068748998</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>5.8821764679411004</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>6.2177166226839304</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>7.1589105316381803</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>3.60555127546399</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>2.0099751242241801</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>2.2090722034374499</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>1.89736659610103</v>
       </c>
     </row>
@@ -1437,136 +1429,134 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="4" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2.1077238908357998</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>3.40587727318528</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3.7124789561693099</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1.9163767896736801</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>4.00562105047395</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>3.8421998906876298</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.04403065089106</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>4.4342417615642002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>4.5122056690713901</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.78262379212492605</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2.7018512172212601</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2.7225906780123998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.5402921800749401</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1.90262975904404</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>1.9319679086361701</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3.9385911186615998</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1.14017542509914</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.71589105316381796</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3.6417715469260301</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.36055512754639901</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>3.48173807171074</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1579,81 +1569,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>587.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>822.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>587.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1175</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>1057.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>587.5</v>
       </c>
     </row>
